--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il7-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il7-Il2rg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Il7</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6404143333333333</v>
+        <v>0.4161346666666667</v>
       </c>
       <c r="H2">
-        <v>1.921243</v>
+        <v>1.248404</v>
       </c>
       <c r="I2">
-        <v>0.6110578901736126</v>
+        <v>0.4872818821417071</v>
       </c>
       <c r="J2">
-        <v>0.6110578901736126</v>
+        <v>0.487281882141707</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>49.22961066666667</v>
+        <v>50.26671733333333</v>
       </c>
       <c r="N2">
-        <v>147.688832</v>
+        <v>150.800152</v>
       </c>
       <c r="O2">
-        <v>0.31191911390397</v>
+        <v>0.2619764206727233</v>
       </c>
       <c r="P2">
-        <v>0.31191911390397</v>
+        <v>0.2619764206727234</v>
       </c>
       <c r="Q2">
-        <v>31.52734829535289</v>
+        <v>20.91772366193423</v>
       </c>
       <c r="R2">
-        <v>283.7461346581759</v>
+        <v>188.259512957408</v>
       </c>
       <c r="S2">
-        <v>0.1906006356469827</v>
+        <v>0.1276563633421522</v>
       </c>
       <c r="T2">
-        <v>0.1906006356469827</v>
+        <v>0.1276563633421522</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6404143333333333</v>
+        <v>0.4161346666666667</v>
       </c>
       <c r="H3">
-        <v>1.921243</v>
+        <v>1.248404</v>
       </c>
       <c r="I3">
-        <v>0.6110578901736126</v>
+        <v>0.4872818821417071</v>
       </c>
       <c r="J3">
-        <v>0.6110578901736126</v>
+        <v>0.487281882141707</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.340059999999999</v>
       </c>
       <c r="O3">
-        <v>0.01972622573797533</v>
+        <v>0.01622594841727</v>
       </c>
       <c r="P3">
-        <v>0.01972622573797533</v>
+        <v>0.01622594841727001</v>
       </c>
       <c r="Q3">
-        <v>1.993836099397778</v>
+        <v>1.295574251582222</v>
       </c>
       <c r="R3">
-        <v>17.94452489458</v>
+        <v>11.66016826424</v>
       </c>
       <c r="S3">
-        <v>0.01205386588053562</v>
+        <v>0.00790661068430158</v>
       </c>
       <c r="T3">
-        <v>0.01205386588053562</v>
+        <v>0.007906610684301582</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6404143333333333</v>
+        <v>0.4161346666666667</v>
       </c>
       <c r="H4">
-        <v>1.921243</v>
+        <v>1.248404</v>
       </c>
       <c r="I4">
-        <v>0.6110578901736126</v>
+        <v>0.4872818821417071</v>
       </c>
       <c r="J4">
-        <v>0.6110578901736126</v>
+        <v>0.487281882141707</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.92553333333333</v>
+        <v>80.63290666666667</v>
       </c>
       <c r="N4">
-        <v>137.7766</v>
+        <v>241.89872</v>
       </c>
       <c r="O4">
-        <v>0.2909844597369537</v>
+        <v>0.4202367172077739</v>
       </c>
       <c r="P4">
-        <v>0.2909844597369537</v>
+        <v>0.4202367172077739</v>
       </c>
       <c r="Q4">
-        <v>29.41136981264444</v>
+        <v>33.55414773809778</v>
       </c>
       <c r="R4">
-        <v>264.7023283138</v>
+        <v>301.98732964288</v>
       </c>
       <c r="S4">
-        <v>0.1778083500401715</v>
+        <v>0.2047737385060564</v>
       </c>
       <c r="T4">
-        <v>0.1778083500401715</v>
+        <v>0.2047737385060563</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6404143333333333</v>
+        <v>0.4161346666666667</v>
       </c>
       <c r="H5">
-        <v>1.921243</v>
+        <v>1.248404</v>
       </c>
       <c r="I5">
-        <v>0.6110578901736126</v>
+        <v>0.4872818821417071</v>
       </c>
       <c r="J5">
-        <v>0.6110578901736126</v>
+        <v>0.487281882141707</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.281801333333333</v>
+        <v>2.274154</v>
       </c>
       <c r="N5">
-        <v>6.845403999999999</v>
+        <v>6.822462</v>
       </c>
       <c r="O5">
-        <v>0.01445750718642485</v>
+        <v>0.01185227038057408</v>
       </c>
       <c r="P5">
-        <v>0.01445750718642485</v>
+        <v>0.01185227038057408</v>
       </c>
       <c r="Q5">
-        <v>1.461298279685778</v>
+        <v>0.9463543167386667</v>
       </c>
       <c r="R5">
-        <v>13.151684517172</v>
+        <v>8.517188850648001</v>
       </c>
       <c r="S5">
-        <v>0.008834373838506609</v>
+        <v>0.005775396618698545</v>
       </c>
       <c r="T5">
-        <v>0.008834373838506609</v>
+        <v>0.005775396618698545</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.6404143333333333</v>
+        <v>0.4161346666666667</v>
       </c>
       <c r="H6">
-        <v>1.921243</v>
+        <v>1.248404</v>
       </c>
       <c r="I6">
-        <v>0.6110578901736126</v>
+        <v>0.4872818821417071</v>
       </c>
       <c r="J6">
-        <v>0.6110578901736126</v>
+        <v>0.487281882141707</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.277832</v>
+        <v>55.58783666666667</v>
       </c>
       <c r="N6">
-        <v>171.833496</v>
+        <v>166.76351</v>
       </c>
       <c r="O6">
-        <v>0.3629126934346761</v>
+        <v>0.2897086433216586</v>
       </c>
       <c r="P6">
-        <v>0.3629126934346761</v>
+        <v>0.2897086433216586</v>
       </c>
       <c r="Q6">
-        <v>36.68154459505866</v>
+        <v>23.13202588200445</v>
       </c>
       <c r="R6">
-        <v>330.1339013555279</v>
+        <v>208.18823293804</v>
       </c>
       <c r="S6">
-        <v>0.2217606647674162</v>
+        <v>0.1411697729904983</v>
       </c>
       <c r="T6">
-        <v>0.2217606647674163</v>
+        <v>0.1411697729904983</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.8968050000000001</v>
       </c>
       <c r="I7">
-        <v>0.2852318895616778</v>
+        <v>0.3500443993403526</v>
       </c>
       <c r="J7">
-        <v>0.2852318895616779</v>
+        <v>0.3500443993403526</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>49.22961066666667</v>
+        <v>50.26671733333333</v>
       </c>
       <c r="N7">
-        <v>147.688832</v>
+        <v>150.800152</v>
       </c>
       <c r="O7">
-        <v>0.31191911390397</v>
+        <v>0.2619764206727233</v>
       </c>
       <c r="P7">
-        <v>0.31191911390397</v>
+        <v>0.2619764206727234</v>
       </c>
       <c r="Q7">
-        <v>14.71645366464</v>
+        <v>15.02648114604</v>
       </c>
       <c r="R7">
-        <v>132.44808298176</v>
+        <v>135.23833031436</v>
       </c>
       <c r="S7">
-        <v>0.08896927824923359</v>
+        <v>0.09170337881571897</v>
       </c>
       <c r="T7">
-        <v>0.0889692782492336</v>
+        <v>0.09170337881571899</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.8968050000000001</v>
       </c>
       <c r="I8">
-        <v>0.2852318895616778</v>
+        <v>0.3500443993403526</v>
       </c>
       <c r="J8">
-        <v>0.2852318895616779</v>
+        <v>0.3500443993403526</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.340059999999999</v>
       </c>
       <c r="O8">
-        <v>0.01972622573797533</v>
+        <v>0.01622594841727</v>
       </c>
       <c r="P8">
-        <v>0.01972622573797533</v>
+        <v>0.01622594841727001</v>
       </c>
       <c r="Q8">
         <v>0.9306902786999999</v>
@@ -948,10 +948,10 @@
         <v>8.3762125083</v>
       </c>
       <c r="S8">
-        <v>0.005626548641162906</v>
+        <v>0.005679802367450824</v>
       </c>
       <c r="T8">
-        <v>0.005626548641162907</v>
+        <v>0.005679802367450825</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>0.8968050000000001</v>
       </c>
       <c r="I9">
-        <v>0.2852318895616778</v>
+        <v>0.3500443993403526</v>
       </c>
       <c r="J9">
-        <v>0.2852318895616779</v>
+        <v>0.3500443993403526</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.92553333333333</v>
+        <v>80.63290666666667</v>
       </c>
       <c r="N9">
-        <v>137.7766</v>
+        <v>241.89872</v>
       </c>
       <c r="O9">
-        <v>0.2909844597369537</v>
+        <v>0.4202367172077739</v>
       </c>
       <c r="P9">
-        <v>0.2909844597369537</v>
+        <v>0.4202367172077739</v>
       </c>
       <c r="Q9">
-        <v>13.728749307</v>
+        <v>24.1039979544</v>
       </c>
       <c r="R9">
-        <v>123.558743763</v>
+        <v>216.9359815896</v>
       </c>
       <c r="S9">
-        <v>0.08299804728385528</v>
+        <v>0.1471015092557569</v>
       </c>
       <c r="T9">
-        <v>0.08299804728385529</v>
+        <v>0.1471015092557569</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>0.8968050000000001</v>
       </c>
       <c r="I10">
-        <v>0.2852318895616778</v>
+        <v>0.3500443993403526</v>
       </c>
       <c r="J10">
-        <v>0.2852318895616779</v>
+        <v>0.3500443993403526</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.281801333333333</v>
+        <v>2.274154</v>
       </c>
       <c r="N10">
-        <v>6.845403999999999</v>
+        <v>6.822462</v>
       </c>
       <c r="O10">
-        <v>0.01445750718642485</v>
+        <v>0.01185227038057408</v>
       </c>
       <c r="P10">
-        <v>0.01445750718642485</v>
+        <v>0.01185227038057408</v>
       </c>
       <c r="Q10">
-        <v>0.68211028158</v>
+        <v>0.6798242259899999</v>
       </c>
       <c r="R10">
-        <v>6.13899253422</v>
+        <v>6.11841803391</v>
       </c>
       <c r="S10">
-        <v>0.004123742093135496</v>
+        <v>0.004148820866187507</v>
       </c>
       <c r="T10">
-        <v>0.004123742093135497</v>
+        <v>0.004148820866187507</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>0.8968050000000001</v>
       </c>
       <c r="I11">
-        <v>0.2852318895616778</v>
+        <v>0.3500443993403526</v>
       </c>
       <c r="J11">
-        <v>0.2852318895616779</v>
+        <v>0.3500443993403526</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.277832</v>
+        <v>55.58783666666667</v>
       </c>
       <c r="N11">
-        <v>171.833496</v>
+        <v>166.76351</v>
       </c>
       <c r="O11">
-        <v>0.3629126934346761</v>
+        <v>0.2897086433216586</v>
       </c>
       <c r="P11">
-        <v>0.3629126934346761</v>
+        <v>0.2897086433216586</v>
       </c>
       <c r="Q11">
-        <v>17.12234870892</v>
+        <v>16.61714995395</v>
       </c>
       <c r="R11">
-        <v>154.10113838028</v>
+        <v>149.55434958555</v>
       </c>
       <c r="S11">
-        <v>0.1035142732942906</v>
+        <v>0.1014108880352385</v>
       </c>
       <c r="T11">
-        <v>0.1035142732942906</v>
+        <v>0.1014108880352385</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1086926666666667</v>
+        <v>0.06745866666666667</v>
       </c>
       <c r="H12">
-        <v>0.326078</v>
+        <v>0.202376</v>
       </c>
       <c r="I12">
-        <v>0.1037102202647095</v>
+        <v>0.07899218376447857</v>
       </c>
       <c r="J12">
-        <v>0.1037102202647095</v>
+        <v>0.07899218376447857</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>49.22961066666667</v>
+        <v>50.26671733333333</v>
       </c>
       <c r="N12">
-        <v>147.688832</v>
+        <v>150.800152</v>
       </c>
       <c r="O12">
-        <v>0.31191911390397</v>
+        <v>0.2619764206727233</v>
       </c>
       <c r="P12">
-        <v>0.31191911390397</v>
+        <v>0.2619764206727234</v>
       </c>
       <c r="Q12">
-        <v>5.350897662321778</v>
+        <v>3.390925729016889</v>
       </c>
       <c r="R12">
-        <v>48.15807896089599</v>
+        <v>30.518331561152</v>
       </c>
       <c r="S12">
-        <v>0.03234920000775374</v>
+        <v>0.0206940895637401</v>
       </c>
       <c r="T12">
-        <v>0.03234920000775374</v>
+        <v>0.02069408956374011</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1086926666666667</v>
+        <v>0.06745866666666667</v>
       </c>
       <c r="H13">
-        <v>0.326078</v>
+        <v>0.202376</v>
       </c>
       <c r="I13">
-        <v>0.1037102202647095</v>
+        <v>0.07899218376447857</v>
       </c>
       <c r="J13">
-        <v>0.1037102202647095</v>
+        <v>0.07899218376447857</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.340059999999999</v>
       </c>
       <c r="O13">
-        <v>0.01972622573797533</v>
+        <v>0.01622594841727</v>
       </c>
       <c r="P13">
-        <v>0.01972622573797533</v>
+        <v>0.01622594841727001</v>
       </c>
       <c r="Q13">
-        <v>0.3383986760755555</v>
+        <v>0.2100226647288889</v>
       </c>
       <c r="R13">
-        <v>3.045588084679999</v>
+        <v>1.89020398256</v>
       </c>
       <c r="S13">
-        <v>0.002045811216276803</v>
+        <v>0.001281723099129942</v>
       </c>
       <c r="T13">
-        <v>0.002045811216276803</v>
+        <v>0.001281723099129943</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1086926666666667</v>
+        <v>0.06745866666666667</v>
       </c>
       <c r="H14">
-        <v>0.326078</v>
+        <v>0.202376</v>
       </c>
       <c r="I14">
-        <v>0.1037102202647095</v>
+        <v>0.07899218376447857</v>
       </c>
       <c r="J14">
-        <v>0.1037102202647095</v>
+        <v>0.07899218376447857</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>45.92553333333333</v>
+        <v>80.63290666666667</v>
       </c>
       <c r="N14">
-        <v>137.7766</v>
+        <v>241.89872</v>
       </c>
       <c r="O14">
-        <v>0.2909844597369537</v>
+        <v>0.4202367172077739</v>
       </c>
       <c r="P14">
-        <v>0.2909844597369537</v>
+        <v>0.4202367172077739</v>
       </c>
       <c r="Q14">
-        <v>4.991768686088888</v>
+        <v>5.439388373191111</v>
       </c>
       <c r="R14">
-        <v>44.9259181748</v>
+        <v>48.95449535872</v>
       </c>
       <c r="S14">
-        <v>0.03017806241292696</v>
+        <v>0.03319541599025769</v>
       </c>
       <c r="T14">
-        <v>0.03017806241292696</v>
+        <v>0.03319541599025769</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1086926666666667</v>
+        <v>0.06745866666666667</v>
       </c>
       <c r="H15">
-        <v>0.326078</v>
+        <v>0.202376</v>
       </c>
       <c r="I15">
-        <v>0.1037102202647095</v>
+        <v>0.07899218376447857</v>
       </c>
       <c r="J15">
-        <v>0.1037102202647095</v>
+        <v>0.07899218376447857</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.281801333333333</v>
+        <v>2.274154</v>
       </c>
       <c r="N15">
-        <v>6.845403999999999</v>
+        <v>6.822462</v>
       </c>
       <c r="O15">
-        <v>0.01445750718642485</v>
+        <v>0.01185227038057408</v>
       </c>
       <c r="P15">
-        <v>0.01445750718642485</v>
+        <v>0.01185227038057408</v>
       </c>
       <c r="Q15">
-        <v>0.2480150717235555</v>
+        <v>0.1534113966346667</v>
       </c>
       <c r="R15">
-        <v>2.232135645512</v>
+        <v>1.380702569712</v>
       </c>
       <c r="S15">
-        <v>0.001499391254782741</v>
+        <v>0.0009362367199285942</v>
       </c>
       <c r="T15">
-        <v>0.001499391254782741</v>
+        <v>0.0009362367199285943</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1086926666666667</v>
+        <v>0.06745866666666667</v>
       </c>
       <c r="H16">
-        <v>0.326078</v>
+        <v>0.202376</v>
       </c>
       <c r="I16">
-        <v>0.1037102202647095</v>
+        <v>0.07899218376447857</v>
       </c>
       <c r="J16">
-        <v>0.1037102202647095</v>
+        <v>0.07899218376447857</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.277832</v>
+        <v>55.58783666666667</v>
       </c>
       <c r="N16">
-        <v>171.833496</v>
+        <v>166.76351</v>
       </c>
       <c r="O16">
-        <v>0.3629126934346761</v>
+        <v>0.2897086433216586</v>
       </c>
       <c r="P16">
-        <v>0.3629126934346761</v>
+        <v>0.2897086433216586</v>
       </c>
       <c r="Q16">
-        <v>6.225680300965332</v>
+        <v>3.749881344417778</v>
       </c>
       <c r="R16">
-        <v>56.031122708688</v>
+        <v>33.74893209976</v>
       </c>
       <c r="S16">
-        <v>0.03763775537296924</v>
+        <v>0.02288471839142224</v>
       </c>
       <c r="T16">
-        <v>0.03763775537296925</v>
+        <v>0.02288471839142224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.07146333333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.21439</v>
+      </c>
+      <c r="I17">
+        <v>0.08368153475346168</v>
+      </c>
+      <c r="J17">
+        <v>0.08368153475346167</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>50.26671733333333</v>
+      </c>
+      <c r="N17">
+        <v>150.800152</v>
+      </c>
+      <c r="O17">
+        <v>0.2619764206727233</v>
+      </c>
+      <c r="P17">
+        <v>0.2619764206727234</v>
+      </c>
+      <c r="Q17">
+        <v>3.592227176364445</v>
+      </c>
+      <c r="R17">
+        <v>32.33004458728</v>
+      </c>
+      <c r="S17">
+        <v>0.02192258895111199</v>
+      </c>
+      <c r="T17">
+        <v>0.02192258895111199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.07146333333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.21439</v>
+      </c>
+      <c r="I18">
+        <v>0.08368153475346168</v>
+      </c>
+      <c r="J18">
+        <v>0.08368153475346167</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.113353333333333</v>
+      </c>
+      <c r="N18">
+        <v>9.340059999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.01622594841727</v>
+      </c>
+      <c r="P18">
+        <v>0.01622594841727001</v>
+      </c>
+      <c r="Q18">
+        <v>0.2224906070444444</v>
+      </c>
+      <c r="R18">
+        <v>2.0024154634</v>
+      </c>
+      <c r="S18">
+        <v>0.001357812266387656</v>
+      </c>
+      <c r="T18">
+        <v>0.001357812266387656</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.07146333333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.21439</v>
+      </c>
+      <c r="I19">
+        <v>0.08368153475346168</v>
+      </c>
+      <c r="J19">
+        <v>0.08368153475346167</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>80.63290666666667</v>
+      </c>
+      <c r="N19">
+        <v>241.89872</v>
+      </c>
+      <c r="O19">
+        <v>0.4202367172077739</v>
+      </c>
+      <c r="P19">
+        <v>0.4202367172077739</v>
+      </c>
+      <c r="Q19">
+        <v>5.762296286755556</v>
+      </c>
+      <c r="R19">
+        <v>51.8606665808</v>
+      </c>
+      <c r="S19">
+        <v>0.03516605345570298</v>
+      </c>
+      <c r="T19">
+        <v>0.03516605345570298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.07146333333333334</v>
+      </c>
+      <c r="H20">
+        <v>0.21439</v>
+      </c>
+      <c r="I20">
+        <v>0.08368153475346168</v>
+      </c>
+      <c r="J20">
+        <v>0.08368153475346167</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.274154</v>
+      </c>
+      <c r="N20">
+        <v>6.822462</v>
+      </c>
+      <c r="O20">
+        <v>0.01185227038057408</v>
+      </c>
+      <c r="P20">
+        <v>0.01185227038057408</v>
+      </c>
+      <c r="Q20">
+        <v>0.1625186253533333</v>
+      </c>
+      <c r="R20">
+        <v>1.46266762818</v>
+      </c>
+      <c r="S20">
+        <v>0.0009918161757594345</v>
+      </c>
+      <c r="T20">
+        <v>0.0009918161757594345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.07146333333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.21439</v>
+      </c>
+      <c r="I21">
+        <v>0.08368153475346168</v>
+      </c>
+      <c r="J21">
+        <v>0.08368153475346167</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>55.58783666666667</v>
+      </c>
+      <c r="N21">
+        <v>166.76351</v>
+      </c>
+      <c r="O21">
+        <v>0.2897086433216586</v>
+      </c>
+      <c r="P21">
+        <v>0.2897086433216586</v>
+      </c>
+      <c r="Q21">
+        <v>3.972492100988889</v>
+      </c>
+      <c r="R21">
+        <v>35.7524289089</v>
+      </c>
+      <c r="S21">
+        <v>0.02424326390449961</v>
+      </c>
+      <c r="T21">
+        <v>0.02424326390449961</v>
       </c>
     </row>
   </sheetData>
